--- a/xlsx/联合国人权理事会_intext.xlsx
+++ b/xlsx/联合国人权理事会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="571">
   <si>
     <t>联合国人权理事会</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_联合国人权理事会</t>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_联合国人权理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%B3%BB%E7%BB%9F</t>
@@ -71,9 +71,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
   </si>
   <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E4%BA%BA%E6%9D%83%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -101,13 +98,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E4%BA%8B%E5%8B%99%E9%AB%98%E7%B4%9A%E5%B0%88%E5%93%A1%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國人權事務高級專員辦事處</t>
+    <t>联合国人权事务高级专员办事处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>聯合國憲章</t>
+    <t>联合国宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%87%E5%A5%B3%E5%9C%B0%E4%BD%8D%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -173,13 +170,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -293,13 +290,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -371,19 +368,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -407,37 +404,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%8F%8A%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD%E8%81%AF%E5%90%88%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛及北愛爾蘭聯合王國</t>
+    <t>大不列颠及北爱尔兰联合王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
@@ -521,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -587,27 +584,24 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A%E5%88%A9%E8%88%87%E6%94%BF%E6%B2%BB%E6%AC%8A%E5%88%A9%E5%9C%8B%E9%9A%9B%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>公民權利與政治權利國際公約</t>
+    <t>公民权利与政治权利国际公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E3%80%81%E7%A4%BE%E6%9C%83%E8%88%87%E6%96%87%E5%8C%96%E6%AC%8A%E5%88%A9%E5%9C%8B%E9%9A%9B%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>經濟、社會與文化權利國際公約</t>
+    <t>经济、社会与文化权利国际公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E4%BA%BA%E6%9D%83%E4%BA%8B%E5%8A%A1%E9%AB%98%E7%BA%A7%E4%B8%93%E5%91%98%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
   </si>
   <si>
-    <t>联合国人权事务高级专员办事处</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%8F%E6%B5%8E%E5%8F%8A%E7%A4%BE%E4%BC%9A%E7%90%86%E4%BA%8B%E4%BC%9A</t>
   </si>
   <si>
@@ -629,9 +623,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E5%8F%A4%E7%89%B9%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
@@ -677,9 +668,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
   </si>
   <si>
@@ -695,31 +683,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
+    <t>联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%8A%E7%A4%BE%E6%9C%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國經濟及社會理事會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國秘書處</t>
+    <t>联合国秘书处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
+    <t>国际法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A8%97%E7%AE%A1%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國託管理事會</t>
+    <t>联合国讬管理事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_specialized_agencies_of_the_United_Nations</t>
@@ -731,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -749,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E6%B3%95%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國國際貿易法委員會</t>
+    <t>联合国国际贸易法委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%B4%B8%E6%98%93%E5%92%8C%E5%8F%91%E5%B1%95%E4%BC%9A%E8%AE%AE</t>
@@ -761,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國環境署</t>
+    <t>联合国环境署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNEP_OzonAction</t>
@@ -785,31 +770,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%8F%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>聯合國人口基金</t>
+    <t>联合国人口基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%B1%85%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國人居署</t>
+    <t>联合国人居署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9B%A3%E6%B0%91%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國難民署</t>
+    <t>联合国难民署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權理事會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Institute_for_Disarmament_Research</t>
@@ -833,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聯合國大學</t>
+    <t>联合国大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNU-OP</t>
@@ -875,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B3%A7%E9%A3%9F%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>世界糧食計劃署</t>
+    <t>世界粮食计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%84%9B%E6%BB%8B%E7%97%85%E8%81%AF%E5%90%88%E8%A6%8F%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國愛滋病聯合規劃署</t>
+    <t>联合国爱滋病联合规划署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Interregional_Crime_and_Justice_Research_Institute</t>
@@ -893,13 +875,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%99%BC%E5%B1%95%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>聯合國社會發展研究所</t>
+    <t>联合国社会发展研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際民用航空組織</t>
+    <t>国际民用航空组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Fund_for_Agricultural_Development</t>
@@ -911,25 +893,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際海事組織</t>
+    <t>国际海事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E4%BF%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際電信聯盟</t>
+    <t>国际电信联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Assistance_Framework</t>
@@ -947,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E8%82%B2%E3%80%81%E7%A7%91%E5%AD%B8%E5%8F%8A%E6%96%87%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教育、科學及文化組織</t>
+    <t>联合国教育、科学及文化组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Fund_for_International_Partnerships_(UNFIP)</t>
@@ -977,31 +959,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E9%83%B5%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬國郵政聯盟</t>
+    <t>万国邮政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界智慧財產權組織</t>
+    <t>世界智慧财产权组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
@@ -1013,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%95%8F%E9%A1%8C%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>前南斯拉夫問題國際刑事法庭</t>
+    <t>前南斯拉夫问题国际刑事法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>獅子山特別法庭</t>
+    <t>狮子山特别法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_Panels_of_the_Dili_District_Court</t>
@@ -1079,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%81%93%E4%BA%8B%E5%8B%99%E5%8D%94%E8%AA%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>聯合國人道事務協調廳</t>
+    <t>联合国人道事务协调厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_Disarmament_Affairs</t>
@@ -1091,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%AF%92%E5%93%81%E5%92%8C%E7%8A%AF%E7%BD%AA%E5%95%8F%E9%A1%8C%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>聯合國毒品和犯罪問題辦公室</t>
+    <t>联合国毒品和犯罪问题办公室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_the_High_Representative_for_the_Least_Developed_Countries,_Landlocked_Developing_Countries_and_Small_Island_Developing_States</t>
@@ -1115,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B8%BD%E9%83%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>聯合國總部大樓</t>
+    <t>联合国总部大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%97%A5%E5%86%85%E7%93%A6%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
@@ -1145,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A5%88%E6%B4%9B%E6%AF%94%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國奈洛比辦事處</t>
+    <t>联合国奈洛比办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_organizations_by_location</t>
@@ -1157,25 +1139,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%8D%80%E5%9F%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國區域集團</t>
+    <t>联合国区域集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國安全理事會常任理事國</t>
+    <t>联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Union_and_the_United_Nations</t>
@@ -1193,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%AD%A6%E5%AF%9F</t>
@@ -1205,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%B1%E5%90%8C%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>聯合國共同宣言</t>
+    <t>联合国共同宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E6%8C%81%E5%92%8C%E5%B9%B3%E8%A1%8C%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -1217,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8C%81%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>維持和平</t>
+    <t>维持和平</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
@@ -1241,13 +1223,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國決議</t>
+    <t>联合国决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_resolutions_at_the_sixty-sixth_session_of_the_United_Nations_General_Assembly</t>
@@ -1265,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會決議</t>
+    <t>联合国安全理事会决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_Security_Council_resolutions_concerning_Cyprus</t>
@@ -1307,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%9C%9D%E9%AE%AE%E7%9B%B8%E9%97%9C%E6%B1%BA%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國安全理事會朝鮮相關決議列表</t>
+    <t>联合国安全理事会朝鲜相关决议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_the_UN_resolutions_concerning_Palestine</t>
@@ -1397,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%80%9A%E8%A1%8C%E8%AD%89</t>
   </si>
   <si>
-    <t>聯合國通行證</t>
+    <t>联合国通行证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Official_languages_of_the_United_Nations</t>
@@ -1415,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%95%A6%E6%A3%AE%E6%9E%97%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>布列敦森林體系</t>
+    <t>布列敦森林体系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delivering_as_One</t>
@@ -1433,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>千禧高峰會</t>
+    <t>千禧高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B9%B4%E5%8F%91%E5%B1%95%E7%9B%AE%E6%A0%87</t>
@@ -1445,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>聯合國改革</t>
+    <t>联合国改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
@@ -1457,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BA%AA%E5%BF%B5%E6%B4%BB%E5%8A%A8</t>
@@ -1469,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>聯合國日</t>
+    <t>联合国日</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_television_film_series</t>
@@ -1481,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96%E4%B8%AD%E7%9A%84%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>大眾文化中的聯合國</t>
+    <t>大众文化中的联合国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comprehensive_Nuclear-Test-Ban_Treaty_Organization</t>
@@ -1493,13 +1475,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>國際原子能機構</t>
+    <t>国际原子能机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B5%B7%E5%BA%95%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -1517,19 +1499,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>禁止化學武器組織</t>
+    <t>禁止化学武器组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_human_rights_organisations</t>
@@ -1577,13 +1559,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權委員會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安理會</t>
+    <t>联合国安理会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/African_Commission_on_Human_and_Peoples%27_Rights</t>
@@ -1595,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E6%AC%8A%E8%88%87%E6%B0%91%E6%97%8F%E6%AC%8A%E5%88%A9%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>非洲人權與民族權利法院</t>
+    <t>非洲人权与民族权利法院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/African_Court_of_Justice</t>
@@ -1631,31 +1610,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>美洲國家組織</t>
+    <t>美洲国家组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E7%A7%91%E6%96%87%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教科文組織</t>
+    <t>联合国教科文组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A9%A6%E5%A5%B3%E5%9C%B0%E4%BD%8D%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國婦女地位委員會</t>
+    <t>联合国妇女地位委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Fund_for_Women</t>
@@ -1667,9 +1646,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%BC%80%E5%8F%91%E8%AE%A1%E5%88%92%E7%BD%B2</t>
   </si>
   <si>
-    <t>联合国开发计划署</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/NGO</t>
   </si>
   <si>
@@ -1679,19 +1655,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E8%81%AF%E7%9B%9F_(%E5%B7%B4%E9%BB%8E)</t>
   </si>
   <si>
-    <t>國際人權聯盟 (巴黎)</t>
+    <t>国际人权联盟 (巴黎)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A%E8%A7%80%E5%AF%9F</t>
   </si>
   <si>
-    <t>人權觀察</t>
+    <t>人权观察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
@@ -1709,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1727,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1739,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2354,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2380,10 +2356,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -2409,10 +2385,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2438,10 +2414,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>85</v>
@@ -2467,10 +2443,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2496,10 +2472,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -2525,10 +2501,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -2554,10 +2530,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -2583,10 +2559,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2612,10 +2588,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -2641,10 +2617,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2670,10 +2646,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -2699,10 +2675,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2728,10 +2704,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2757,10 +2733,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2786,10 +2762,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2815,10 +2791,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2844,10 +2820,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2873,10 +2849,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2902,10 +2878,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2931,10 +2907,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2960,10 +2936,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2989,10 +2965,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3018,10 +2994,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3047,10 +3023,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3076,10 +3052,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3105,10 +3081,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -3134,10 +3110,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3163,10 +3139,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -3192,10 +3168,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3221,10 +3197,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3250,10 +3226,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3279,10 +3255,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3308,10 +3284,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3337,10 +3313,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3366,10 +3342,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3395,10 +3371,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3424,10 +3400,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3453,10 +3429,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3482,10 +3458,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3511,10 +3487,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3540,10 +3516,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3569,10 +3545,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3598,10 +3574,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3627,10 +3603,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3656,10 +3632,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3685,10 +3661,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3714,10 +3690,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3743,10 +3719,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3772,10 +3748,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3801,10 +3777,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3830,10 +3806,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3859,10 +3835,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3888,10 +3864,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3917,10 +3893,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3946,10 +3922,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3975,10 +3951,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4004,10 +3980,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4033,10 +4009,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4062,10 +4038,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4091,10 +4067,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4120,10 +4096,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4149,10 +4125,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4178,10 +4154,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4207,10 +4183,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4236,10 +4212,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4265,10 +4241,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4294,10 +4270,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4323,10 +4299,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4352,10 +4328,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4381,10 +4357,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4410,10 +4386,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4439,10 +4415,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4468,10 +4444,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4497,10 +4473,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4526,10 +4502,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4555,10 +4531,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4584,10 +4560,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4613,10 +4589,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4642,10 +4618,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4671,10 +4647,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4700,10 +4676,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4729,10 +4705,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4758,10 +4734,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4787,10 +4763,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4816,10 +4792,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4845,10 +4821,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4874,10 +4850,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4903,10 +4879,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4932,10 +4908,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4961,10 +4937,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4990,10 +4966,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5019,10 +4995,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -5048,10 +5024,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="G102" t="n">
         <v>35</v>
@@ -5077,10 +5053,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5106,10 +5082,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -5135,10 +5111,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5164,10 +5140,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5193,10 +5169,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5222,10 +5198,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5280,10 +5256,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5309,10 +5285,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="G111" t="n">
         <v>7</v>
@@ -5338,10 +5314,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5367,10 +5343,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5396,10 +5372,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5425,10 +5401,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5454,10 +5430,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5483,10 +5459,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5512,10 +5488,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5541,10 +5517,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5570,10 +5546,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5599,10 +5575,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5628,10 +5604,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5657,10 +5633,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5686,10 +5662,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5715,10 +5691,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5744,10 +5720,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5773,10 +5749,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5802,10 +5778,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5831,10 +5807,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5860,10 +5836,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5889,10 +5865,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5918,10 +5894,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5947,10 +5923,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -5976,10 +5952,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6005,10 +5981,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6034,10 +6010,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6063,10 +6039,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6092,10 +6068,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6121,10 +6097,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6150,10 +6126,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6179,10 +6155,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6208,10 +6184,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6237,10 +6213,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6266,10 +6242,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6295,10 +6271,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6324,10 +6300,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6353,10 +6329,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6382,10 +6358,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6411,10 +6387,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6440,10 +6416,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6469,10 +6445,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6498,10 +6474,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6527,10 +6503,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6556,10 +6532,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6585,10 +6561,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6614,10 +6590,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6643,10 +6619,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6672,10 +6648,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6701,10 +6677,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6730,10 +6706,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6759,10 +6735,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6788,10 +6764,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6817,10 +6793,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6846,10 +6822,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6875,10 +6851,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6904,10 +6880,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6933,10 +6909,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6962,10 +6938,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6991,10 +6967,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7020,10 +6996,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7049,10 +7025,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7078,10 +7054,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7107,10 +7083,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7136,10 +7112,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7165,10 +7141,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7194,10 +7170,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7223,10 +7199,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7252,10 +7228,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7281,10 +7257,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7310,10 +7286,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7339,10 +7315,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7368,10 +7344,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7397,10 +7373,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7426,10 +7402,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7455,10 +7431,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7484,10 +7460,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7513,10 +7489,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7542,10 +7518,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7571,10 +7547,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7600,10 +7576,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7629,10 +7605,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7658,10 +7634,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7687,10 +7663,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7716,10 +7692,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -7745,10 +7721,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7774,10 +7750,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7803,10 +7779,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7832,10 +7808,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7861,10 +7837,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7890,10 +7866,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7919,10 +7895,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7948,10 +7924,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7977,10 +7953,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8006,10 +7982,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8035,10 +8011,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8064,10 +8040,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8093,10 +8069,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8122,10 +8098,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8151,10 +8127,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8180,10 +8156,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8209,10 +8185,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8238,10 +8214,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -8267,10 +8243,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8296,10 +8272,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8325,10 +8301,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8354,10 +8330,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8383,10 +8359,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8412,10 +8388,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8441,10 +8417,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8470,10 +8446,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8499,10 +8475,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8528,10 +8504,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8557,10 +8533,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8586,10 +8562,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8615,10 +8591,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8644,10 +8620,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8673,10 +8649,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8702,10 +8678,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8731,10 +8707,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8760,10 +8736,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8789,10 +8765,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8818,10 +8794,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8847,10 +8823,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8876,10 +8852,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8905,10 +8881,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8934,10 +8910,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8963,10 +8939,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8992,10 +8968,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9021,10 +8997,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9050,10 +9026,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9079,10 +9055,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9108,10 +9084,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9137,10 +9113,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9166,10 +9142,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9195,10 +9171,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9224,10 +9200,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9253,10 +9229,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9282,10 +9258,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9311,10 +9287,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9340,10 +9316,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9369,10 +9345,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9398,10 +9374,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9427,10 +9403,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9456,10 +9432,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9485,10 +9461,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9514,10 +9490,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>31</v>
@@ -9543,10 +9519,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9572,10 +9548,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9601,10 +9577,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9630,10 +9606,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>8</v>
@@ -9659,10 +9635,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9688,10 +9664,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9717,10 +9693,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9746,10 +9722,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>19</v>
       </c>
       <c r="G264" t="n">
         <v>5</v>
@@ -9775,10 +9751,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9804,10 +9780,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9833,10 +9809,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9862,10 +9838,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9891,10 +9867,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9920,10 +9896,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9949,10 +9925,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9978,10 +9954,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10007,10 +9983,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10036,10 +10012,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10065,10 +10041,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10094,10 +10070,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10123,10 +10099,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10152,10 +10128,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10181,10 +10157,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>243</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10210,10 +10186,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10239,10 +10215,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10268,10 +10244,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10297,10 +10273,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10326,10 +10302,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10355,10 +10331,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10384,10 +10360,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -10413,10 +10389,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10442,10 +10418,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10471,10 +10447,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10500,10 +10476,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10529,10 +10505,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10558,10 +10534,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10587,10 +10563,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
